--- a/battery pack cell stackup.xlsx
+++ b/battery pack cell stackup.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolin\dale\JasonBattery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DLWOLIN\Desktop\GitHub\Electric-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33F4389-640B-4C52-B08E-C5694AFD280E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="90" windowWidth="24060" windowHeight="15810" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
   <si>
     <t>module</t>
   </si>
@@ -203,11 +198,14 @@
   <si>
     <t>5F, 6R</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,7 +308,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69ACD0A5-930A-4159-B3A8-A5CFA3D576E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -382,7 +380,7 @@
         <xdr:cNvPr id="3" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9813D96A-44E8-40E5-8AD9-9729A5BD3060}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -454,7 +452,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D26A9F-2784-483B-B498-52AD61A57F87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -504,7 +502,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C38C1A-A71D-4F4E-857F-898C25E59576}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -554,7 +552,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25DC38C-4490-4EDF-91AB-4A54BEB0B119}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -601,7 +599,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="29" name="Group 28"/>
+        <xdr:cNvPr id="29" name="Group 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -614,7 +618,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="11" name="Group 10"/>
+          <xdr:cNvPr id="11" name="Group 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -627,7 +637,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="Plus 11"/>
+            <xdr:cNvPr id="12" name="Plus 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -674,7 +690,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="Minus 12"/>
+            <xdr:cNvPr id="13" name="Minus 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -722,7 +744,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="14" name="Group 13"/>
+          <xdr:cNvPr id="14" name="Group 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -735,7 +763,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="Plus 14"/>
+            <xdr:cNvPr id="15" name="Plus 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -782,7 +816,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="Minus 15"/>
+            <xdr:cNvPr id="16" name="Minus 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -830,7 +870,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="17" name="Group 16"/>
+          <xdr:cNvPr id="17" name="Group 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -843,7 +889,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="Plus 17"/>
+            <xdr:cNvPr id="18" name="Plus 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -890,7 +942,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="Minus 18"/>
+            <xdr:cNvPr id="19" name="Minus 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -938,7 +996,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="20" name="Group 19"/>
+          <xdr:cNvPr id="20" name="Group 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -951,7 +1015,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="Plus 20"/>
+            <xdr:cNvPr id="21" name="Plus 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -998,7 +1068,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="Minus 21"/>
+            <xdr:cNvPr id="22" name="Minus 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1046,7 +1122,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="23" name="Group 22"/>
+          <xdr:cNvPr id="23" name="Group 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1059,7 +1141,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="Plus 23"/>
+            <xdr:cNvPr id="24" name="Plus 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1106,7 +1194,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="25" name="Minus 24"/>
+            <xdr:cNvPr id="25" name="Minus 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1154,7 +1248,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="26" name="Group 25"/>
+          <xdr:cNvPr id="26" name="Group 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1167,7 +1267,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="27" name="Plus 26"/>
+            <xdr:cNvPr id="27" name="Plus 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1214,7 +1320,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="28" name="Minus 27"/>
+            <xdr:cNvPr id="28" name="Minus 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1278,7 +1390,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="33" name="Group 32"/>
+        <xdr:cNvPr id="33" name="Group 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1291,7 +1409,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="34" name="Group 33"/>
+          <xdr:cNvPr id="34" name="Group 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1304,7 +1428,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="50" name="Plus 49"/>
+            <xdr:cNvPr id="50" name="Plus 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1351,7 +1481,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="51" name="Minus 50"/>
+            <xdr:cNvPr id="51" name="Minus 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1399,7 +1535,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="35" name="Group 34"/>
+          <xdr:cNvPr id="35" name="Group 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1412,7 +1554,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="48" name="Plus 47"/>
+            <xdr:cNvPr id="48" name="Plus 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1459,7 +1607,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="49" name="Minus 48"/>
+            <xdr:cNvPr id="49" name="Minus 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1507,7 +1661,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="36" name="Group 35"/>
+          <xdr:cNvPr id="36" name="Group 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1520,7 +1680,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="46" name="Plus 45"/>
+            <xdr:cNvPr id="46" name="Plus 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1567,7 +1733,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="47" name="Minus 46"/>
+            <xdr:cNvPr id="47" name="Minus 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1615,7 +1787,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="37" name="Group 36"/>
+          <xdr:cNvPr id="37" name="Group 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1628,7 +1806,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="44" name="Plus 43"/>
+            <xdr:cNvPr id="44" name="Plus 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1675,7 +1859,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="45" name="Minus 44"/>
+            <xdr:cNvPr id="45" name="Minus 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1723,7 +1913,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="38" name="Group 37"/>
+          <xdr:cNvPr id="38" name="Group 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1736,7 +1932,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="42" name="Plus 41"/>
+            <xdr:cNvPr id="42" name="Plus 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1783,7 +1985,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="43" name="Minus 42"/>
+            <xdr:cNvPr id="43" name="Minus 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1831,7 +2039,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="39" name="Group 38"/>
+          <xdr:cNvPr id="39" name="Group 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1844,7 +2058,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="40" name="Plus 39"/>
+            <xdr:cNvPr id="40" name="Plus 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1891,7 +2111,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="41" name="Minus 40"/>
+            <xdr:cNvPr id="41" name="Minus 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1955,7 +2181,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="52" name="Group 51"/>
+        <xdr:cNvPr id="52" name="Group 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1968,7 +2200,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="53" name="Group 52"/>
+          <xdr:cNvPr id="53" name="Group 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1981,7 +2219,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="69" name="Plus 68"/>
+            <xdr:cNvPr id="69" name="Plus 68">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2028,7 +2272,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="70" name="Minus 69"/>
+            <xdr:cNvPr id="70" name="Minus 69">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2076,7 +2326,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="54" name="Group 53"/>
+          <xdr:cNvPr id="54" name="Group 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2089,7 +2345,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="67" name="Plus 66"/>
+            <xdr:cNvPr id="67" name="Plus 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2136,7 +2398,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="68" name="Minus 67"/>
+            <xdr:cNvPr id="68" name="Minus 67">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2184,7 +2452,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="55" name="Group 54"/>
+          <xdr:cNvPr id="55" name="Group 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2197,7 +2471,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="65" name="Plus 64"/>
+            <xdr:cNvPr id="65" name="Plus 64">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2244,7 +2524,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="66" name="Minus 65"/>
+            <xdr:cNvPr id="66" name="Minus 65">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2292,7 +2578,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="56" name="Group 55"/>
+          <xdr:cNvPr id="56" name="Group 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2305,7 +2597,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="63" name="Plus 62"/>
+            <xdr:cNvPr id="63" name="Plus 62">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2352,7 +2650,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="64" name="Minus 63"/>
+            <xdr:cNvPr id="64" name="Minus 63">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2400,7 +2704,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="57" name="Group 56"/>
+          <xdr:cNvPr id="57" name="Group 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2413,7 +2723,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="61" name="Plus 60"/>
+            <xdr:cNvPr id="61" name="Plus 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2460,7 +2776,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="62" name="Minus 61"/>
+            <xdr:cNvPr id="62" name="Minus 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2508,7 +2830,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="58" name="Group 57"/>
+          <xdr:cNvPr id="58" name="Group 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2521,7 +2849,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="59" name="Plus 58"/>
+            <xdr:cNvPr id="59" name="Plus 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2568,7 +2902,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="60" name="Minus 59"/>
+            <xdr:cNvPr id="60" name="Minus 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2632,7 +2972,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="71" name="Group 70"/>
+        <xdr:cNvPr id="71" name="Group 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2645,7 +2991,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="72" name="Group 71"/>
+          <xdr:cNvPr id="72" name="Group 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2658,7 +3010,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="88" name="Plus 87"/>
+            <xdr:cNvPr id="88" name="Plus 87">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2705,7 +3063,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="89" name="Minus 88"/>
+            <xdr:cNvPr id="89" name="Minus 88">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2753,7 +3117,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="73" name="Group 72"/>
+          <xdr:cNvPr id="73" name="Group 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2766,7 +3136,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="86" name="Plus 85"/>
+            <xdr:cNvPr id="86" name="Plus 85">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2813,7 +3189,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="87" name="Minus 86"/>
+            <xdr:cNvPr id="87" name="Minus 86">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2861,7 +3243,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="74" name="Group 73"/>
+          <xdr:cNvPr id="74" name="Group 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2874,7 +3262,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="84" name="Plus 83"/>
+            <xdr:cNvPr id="84" name="Plus 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2921,7 +3315,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="85" name="Minus 84"/>
+            <xdr:cNvPr id="85" name="Minus 84">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2969,7 +3369,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="75" name="Group 74"/>
+          <xdr:cNvPr id="75" name="Group 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2982,7 +3388,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="82" name="Plus 81"/>
+            <xdr:cNvPr id="82" name="Plus 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3029,7 +3441,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="83" name="Minus 82"/>
+            <xdr:cNvPr id="83" name="Minus 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3077,7 +3495,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="76" name="Group 75"/>
+          <xdr:cNvPr id="76" name="Group 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -3090,7 +3514,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="80" name="Plus 79"/>
+            <xdr:cNvPr id="80" name="Plus 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3137,7 +3567,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="81" name="Minus 80"/>
+            <xdr:cNvPr id="81" name="Minus 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3185,7 +3621,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="77" name="Group 76"/>
+          <xdr:cNvPr id="77" name="Group 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -3198,7 +3640,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="78" name="Plus 77"/>
+            <xdr:cNvPr id="78" name="Plus 77">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3245,7 +3693,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="79" name="Minus 78"/>
+            <xdr:cNvPr id="79" name="Minus 78">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3309,7 +3763,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="90" name="Group 89"/>
+        <xdr:cNvPr id="90" name="Group 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3322,7 +3782,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="91" name="Group 90"/>
+          <xdr:cNvPr id="91" name="Group 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -3335,7 +3801,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="107" name="Plus 106"/>
+            <xdr:cNvPr id="107" name="Plus 106">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3382,7 +3854,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="108" name="Minus 107"/>
+            <xdr:cNvPr id="108" name="Minus 107">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3430,7 +3908,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="92" name="Group 91"/>
+          <xdr:cNvPr id="92" name="Group 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -3443,7 +3927,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="105" name="Plus 104"/>
+            <xdr:cNvPr id="105" name="Plus 104">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3490,7 +3980,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="106" name="Minus 105"/>
+            <xdr:cNvPr id="106" name="Minus 105">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3538,7 +4034,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="93" name="Group 92"/>
+          <xdr:cNvPr id="93" name="Group 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -3551,7 +4053,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="103" name="Plus 102"/>
+            <xdr:cNvPr id="103" name="Plus 102">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3598,7 +4106,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="104" name="Minus 103"/>
+            <xdr:cNvPr id="104" name="Minus 103">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3646,7 +4160,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="94" name="Group 93"/>
+          <xdr:cNvPr id="94" name="Group 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -3659,7 +4179,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="101" name="Plus 100"/>
+            <xdr:cNvPr id="101" name="Plus 100">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3706,7 +4232,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="102" name="Minus 101"/>
+            <xdr:cNvPr id="102" name="Minus 101">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3754,7 +4286,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="95" name="Group 94"/>
+          <xdr:cNvPr id="95" name="Group 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -3767,7 +4305,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="99" name="Plus 98"/>
+            <xdr:cNvPr id="99" name="Plus 98">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3814,7 +4358,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="100" name="Minus 99"/>
+            <xdr:cNvPr id="100" name="Minus 99">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3862,7 +4412,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="96" name="Group 95"/>
+          <xdr:cNvPr id="96" name="Group 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -3875,7 +4431,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="97" name="Plus 96"/>
+            <xdr:cNvPr id="97" name="Plus 96">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3922,7 +4484,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="98" name="Minus 97"/>
+            <xdr:cNvPr id="98" name="Minus 97">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3986,7 +4554,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="109" name="Group 108"/>
+        <xdr:cNvPr id="109" name="Group 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3999,7 +4573,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="110" name="Group 109"/>
+          <xdr:cNvPr id="110" name="Group 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -4012,7 +4592,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="126" name="Plus 125"/>
+            <xdr:cNvPr id="126" name="Plus 125">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4059,7 +4645,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="127" name="Minus 126"/>
+            <xdr:cNvPr id="127" name="Minus 126">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4107,7 +4699,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="111" name="Group 110"/>
+          <xdr:cNvPr id="111" name="Group 110">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -4120,7 +4718,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="124" name="Plus 123"/>
+            <xdr:cNvPr id="124" name="Plus 123">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4167,7 +4771,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="125" name="Minus 124"/>
+            <xdr:cNvPr id="125" name="Minus 124">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4215,7 +4825,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="112" name="Group 111"/>
+          <xdr:cNvPr id="112" name="Group 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -4228,7 +4844,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="122" name="Plus 121"/>
+            <xdr:cNvPr id="122" name="Plus 121">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4275,7 +4897,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="123" name="Minus 122"/>
+            <xdr:cNvPr id="123" name="Minus 122">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4323,7 +4951,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="113" name="Group 112"/>
+          <xdr:cNvPr id="113" name="Group 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -4336,7 +4970,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="120" name="Plus 119"/>
+            <xdr:cNvPr id="120" name="Plus 119">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4383,7 +5023,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="121" name="Minus 120"/>
+            <xdr:cNvPr id="121" name="Minus 120">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4431,7 +5077,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="114" name="Group 113"/>
+          <xdr:cNvPr id="114" name="Group 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -4444,7 +5096,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="118" name="Plus 117"/>
+            <xdr:cNvPr id="118" name="Plus 117">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4491,7 +5149,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="119" name="Minus 118"/>
+            <xdr:cNvPr id="119" name="Minus 118">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4539,7 +5203,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="115" name="Group 114"/>
+          <xdr:cNvPr id="115" name="Group 114">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -4552,7 +5222,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="116" name="Plus 115"/>
+            <xdr:cNvPr id="116" name="Plus 115">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4599,7 +5275,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="117" name="Minus 116"/>
+            <xdr:cNvPr id="117" name="Minus 116">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4666,7 +5348,7 @@
         <xdr:cNvPr id="128" name="Oval 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9813D96A-44E8-40E5-8AD9-9729A5BD3060}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4738,7 +5420,7 @@
         <xdr:cNvPr id="129" name="Oval 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69ACD0A5-930A-4159-B3A8-A5CFA3D576E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4807,7 +5489,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="Straight Arrow Connector 130"/>
+        <xdr:cNvPr id="131" name="Straight Arrow Connector 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4857,7 +5545,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="133" name="Straight Arrow Connector 132"/>
+        <xdr:cNvPr id="133" name="Straight Arrow Connector 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4907,7 +5601,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="134" name="Straight Arrow Connector 133"/>
+        <xdr:cNvPr id="134" name="Straight Arrow Connector 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4957,7 +5657,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="137" name="Straight Arrow Connector 136"/>
+        <xdr:cNvPr id="137" name="Straight Arrow Connector 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5007,7 +5713,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="140" name="Straight Arrow Connector 139"/>
+        <xdr:cNvPr id="140" name="Straight Arrow Connector 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5065,7 +5777,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69ACD0A5-930A-4159-B3A8-A5CFA3D576E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5137,7 +5849,7 @@
         <xdr:cNvPr id="3" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9813D96A-44E8-40E5-8AD9-9729A5BD3060}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5209,7 +5921,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D26A9F-2784-483B-B498-52AD61A57F87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5259,7 +5971,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C38C1A-A71D-4F4E-857F-898C25E59576}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5309,7 +6021,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25DC38C-4490-4EDF-91AB-4A54BEB0B119}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5356,7 +6068,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="Group 6"/>
+        <xdr:cNvPr id="7" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5369,7 +6087,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="8" name="Group 7"/>
+          <xdr:cNvPr id="8" name="Group 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5382,7 +6106,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="Plus 23"/>
+            <xdr:cNvPr id="24" name="Plus 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5429,7 +6159,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="25" name="Minus 24"/>
+            <xdr:cNvPr id="25" name="Minus 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5477,7 +6213,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="9" name="Group 8"/>
+          <xdr:cNvPr id="9" name="Group 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5490,7 +6232,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="Plus 21"/>
+            <xdr:cNvPr id="22" name="Plus 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5537,7 +6285,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="23" name="Minus 22"/>
+            <xdr:cNvPr id="23" name="Minus 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5585,7 +6339,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="10" name="Group 9"/>
+          <xdr:cNvPr id="10" name="Group 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5598,7 +6358,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="Plus 19"/>
+            <xdr:cNvPr id="20" name="Plus 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5645,7 +6411,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="Minus 20"/>
+            <xdr:cNvPr id="21" name="Minus 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5693,7 +6465,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="11" name="Group 10"/>
+          <xdr:cNvPr id="11" name="Group 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5706,7 +6484,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="Plus 17"/>
+            <xdr:cNvPr id="18" name="Plus 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5753,7 +6537,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="Minus 18"/>
+            <xdr:cNvPr id="19" name="Minus 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5801,7 +6591,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="12" name="Group 11"/>
+          <xdr:cNvPr id="12" name="Group 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5814,7 +6610,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="Plus 15"/>
+            <xdr:cNvPr id="16" name="Plus 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5861,7 +6663,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="Minus 16"/>
+            <xdr:cNvPr id="17" name="Minus 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5909,7 +6717,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="13" name="Group 12"/>
+          <xdr:cNvPr id="13" name="Group 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5922,7 +6736,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="Plus 13"/>
+            <xdr:cNvPr id="14" name="Plus 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5969,7 +6789,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="Minus 14"/>
+            <xdr:cNvPr id="15" name="Minus 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6033,7 +6859,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="26" name="Group 25"/>
+        <xdr:cNvPr id="26" name="Group 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6046,7 +6878,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="27" name="Group 26"/>
+          <xdr:cNvPr id="27" name="Group 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -6059,7 +6897,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="43" name="Plus 42"/>
+            <xdr:cNvPr id="43" name="Plus 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6106,7 +6950,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="44" name="Minus 43"/>
+            <xdr:cNvPr id="44" name="Minus 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6154,7 +7004,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="28" name="Group 27"/>
+          <xdr:cNvPr id="28" name="Group 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -6167,7 +7023,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="41" name="Plus 40"/>
+            <xdr:cNvPr id="41" name="Plus 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6214,7 +7076,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="42" name="Minus 41"/>
+            <xdr:cNvPr id="42" name="Minus 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6262,7 +7130,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="29" name="Group 28"/>
+          <xdr:cNvPr id="29" name="Group 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -6275,7 +7149,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="39" name="Plus 38"/>
+            <xdr:cNvPr id="39" name="Plus 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6322,7 +7202,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="40" name="Minus 39"/>
+            <xdr:cNvPr id="40" name="Minus 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6370,7 +7256,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="30" name="Group 29"/>
+          <xdr:cNvPr id="30" name="Group 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -6383,7 +7275,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="37" name="Plus 36"/>
+            <xdr:cNvPr id="37" name="Plus 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6430,7 +7328,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="38" name="Minus 37"/>
+            <xdr:cNvPr id="38" name="Minus 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6478,7 +7382,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="31" name="Group 30"/>
+          <xdr:cNvPr id="31" name="Group 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -6491,7 +7401,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="35" name="Plus 34"/>
+            <xdr:cNvPr id="35" name="Plus 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6538,7 +7454,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="36" name="Minus 35"/>
+            <xdr:cNvPr id="36" name="Minus 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6586,7 +7508,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="32" name="Group 31"/>
+          <xdr:cNvPr id="32" name="Group 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -6599,7 +7527,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="33" name="Plus 32"/>
+            <xdr:cNvPr id="33" name="Plus 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6646,7 +7580,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="34" name="Minus 33"/>
+            <xdr:cNvPr id="34" name="Minus 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6710,7 +7650,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="45" name="Group 44"/>
+        <xdr:cNvPr id="45" name="Group 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6723,7 +7669,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="46" name="Group 45"/>
+          <xdr:cNvPr id="46" name="Group 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -6736,7 +7688,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="62" name="Plus 61"/>
+            <xdr:cNvPr id="62" name="Plus 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6783,7 +7741,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="63" name="Minus 62"/>
+            <xdr:cNvPr id="63" name="Minus 62">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6831,7 +7795,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="47" name="Group 46"/>
+          <xdr:cNvPr id="47" name="Group 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -6844,7 +7814,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="60" name="Plus 59"/>
+            <xdr:cNvPr id="60" name="Plus 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6891,7 +7867,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="61" name="Minus 60"/>
+            <xdr:cNvPr id="61" name="Minus 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6939,7 +7921,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="48" name="Group 47"/>
+          <xdr:cNvPr id="48" name="Group 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -6952,7 +7940,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="58" name="Plus 57"/>
+            <xdr:cNvPr id="58" name="Plus 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6999,7 +7993,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="59" name="Minus 58"/>
+            <xdr:cNvPr id="59" name="Minus 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7047,7 +8047,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="49" name="Group 48"/>
+          <xdr:cNvPr id="49" name="Group 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -7060,7 +8066,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="56" name="Plus 55"/>
+            <xdr:cNvPr id="56" name="Plus 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7107,7 +8119,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="57" name="Minus 56"/>
+            <xdr:cNvPr id="57" name="Minus 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7155,7 +8173,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="50" name="Group 49"/>
+          <xdr:cNvPr id="50" name="Group 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -7168,7 +8192,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="54" name="Plus 53"/>
+            <xdr:cNvPr id="54" name="Plus 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7215,7 +8245,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="55" name="Minus 54"/>
+            <xdr:cNvPr id="55" name="Minus 54">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7263,7 +8299,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="51" name="Group 50"/>
+          <xdr:cNvPr id="51" name="Group 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -7276,7 +8318,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="52" name="Plus 51"/>
+            <xdr:cNvPr id="52" name="Plus 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7323,7 +8371,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="53" name="Minus 52"/>
+            <xdr:cNvPr id="53" name="Minus 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7387,7 +8441,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="64" name="Group 63"/>
+        <xdr:cNvPr id="64" name="Group 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7400,7 +8460,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="65" name="Group 64"/>
+          <xdr:cNvPr id="65" name="Group 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -7413,7 +8479,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="81" name="Plus 80"/>
+            <xdr:cNvPr id="81" name="Plus 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7460,7 +8532,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="82" name="Minus 81"/>
+            <xdr:cNvPr id="82" name="Minus 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7508,7 +8586,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="66" name="Group 65"/>
+          <xdr:cNvPr id="66" name="Group 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -7521,7 +8605,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="79" name="Plus 78"/>
+            <xdr:cNvPr id="79" name="Plus 78">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7568,7 +8658,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="80" name="Minus 79"/>
+            <xdr:cNvPr id="80" name="Minus 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7616,7 +8712,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="67" name="Group 66"/>
+          <xdr:cNvPr id="67" name="Group 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -7629,7 +8731,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="77" name="Plus 76"/>
+            <xdr:cNvPr id="77" name="Plus 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7676,7 +8784,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="78" name="Minus 77"/>
+            <xdr:cNvPr id="78" name="Minus 77">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7724,7 +8838,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="68" name="Group 67"/>
+          <xdr:cNvPr id="68" name="Group 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -7737,7 +8857,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="75" name="Plus 74"/>
+            <xdr:cNvPr id="75" name="Plus 74">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7784,7 +8910,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="76" name="Minus 75"/>
+            <xdr:cNvPr id="76" name="Minus 75">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7832,7 +8964,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="69" name="Group 68"/>
+          <xdr:cNvPr id="69" name="Group 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -7845,7 +8983,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="73" name="Plus 72"/>
+            <xdr:cNvPr id="73" name="Plus 72">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7892,7 +9036,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="74" name="Minus 73"/>
+            <xdr:cNvPr id="74" name="Minus 73">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7940,7 +9090,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="70" name="Group 69"/>
+          <xdr:cNvPr id="70" name="Group 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -7953,7 +9109,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="71" name="Plus 70"/>
+            <xdr:cNvPr id="71" name="Plus 70">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8000,7 +9162,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="72" name="Minus 71"/>
+            <xdr:cNvPr id="72" name="Minus 71">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8064,7 +9232,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="83" name="Group 82"/>
+        <xdr:cNvPr id="83" name="Group 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -8077,7 +9251,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="84" name="Group 83"/>
+          <xdr:cNvPr id="84" name="Group 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -8090,7 +9270,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="100" name="Plus 99"/>
+            <xdr:cNvPr id="100" name="Plus 99">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000064000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8137,7 +9323,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="101" name="Minus 100"/>
+            <xdr:cNvPr id="101" name="Minus 100">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000065000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8185,7 +9377,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="85" name="Group 84"/>
+          <xdr:cNvPr id="85" name="Group 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -8198,7 +9396,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="98" name="Plus 97"/>
+            <xdr:cNvPr id="98" name="Plus 97">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000062000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8245,7 +9449,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="99" name="Minus 98"/>
+            <xdr:cNvPr id="99" name="Minus 98">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000063000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8293,7 +9503,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="86" name="Group 85"/>
+          <xdr:cNvPr id="86" name="Group 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000056000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -8306,7 +9522,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="96" name="Plus 95"/>
+            <xdr:cNvPr id="96" name="Plus 95">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000060000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8353,7 +9575,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="97" name="Minus 96"/>
+            <xdr:cNvPr id="97" name="Minus 96">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000061000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8401,7 +9629,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="87" name="Group 86"/>
+          <xdr:cNvPr id="87" name="Group 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000057000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -8414,7 +9648,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="94" name="Plus 93"/>
+            <xdr:cNvPr id="94" name="Plus 93">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8461,7 +9701,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="95" name="Minus 94"/>
+            <xdr:cNvPr id="95" name="Minus 94">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8509,7 +9755,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="88" name="Group 87"/>
+          <xdr:cNvPr id="88" name="Group 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000058000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -8522,7 +9774,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="92" name="Plus 91"/>
+            <xdr:cNvPr id="92" name="Plus 91">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8569,7 +9827,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="93" name="Minus 92"/>
+            <xdr:cNvPr id="93" name="Minus 92">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8617,7 +9881,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="89" name="Group 88"/>
+          <xdr:cNvPr id="89" name="Group 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000059000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -8630,7 +9900,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="90" name="Plus 89"/>
+            <xdr:cNvPr id="90" name="Plus 89">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8677,7 +9953,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="91" name="Minus 90"/>
+            <xdr:cNvPr id="91" name="Minus 90">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8741,7 +10023,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="102" name="Group 101"/>
+        <xdr:cNvPr id="102" name="Group 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -8754,7 +10042,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="103" name="Group 102"/>
+          <xdr:cNvPr id="103" name="Group 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000067000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -8767,7 +10061,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="119" name="Plus 118"/>
+            <xdr:cNvPr id="119" name="Plus 118">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000077000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8814,7 +10114,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="120" name="Minus 119"/>
+            <xdr:cNvPr id="120" name="Minus 119">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000078000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8862,7 +10168,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="104" name="Group 103"/>
+          <xdr:cNvPr id="104" name="Group 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000068000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -8875,7 +10187,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="117" name="Plus 116"/>
+            <xdr:cNvPr id="117" name="Plus 116">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000075000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8922,7 +10240,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="118" name="Minus 117"/>
+            <xdr:cNvPr id="118" name="Minus 117">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000076000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8970,7 +10294,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="105" name="Group 104"/>
+          <xdr:cNvPr id="105" name="Group 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000069000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -8983,7 +10313,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="115" name="Plus 114"/>
+            <xdr:cNvPr id="115" name="Plus 114">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000073000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9030,7 +10366,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="116" name="Minus 115"/>
+            <xdr:cNvPr id="116" name="Minus 115">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000074000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9078,7 +10420,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="106" name="Group 105"/>
+          <xdr:cNvPr id="106" name="Group 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -9091,7 +10439,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="113" name="Plus 112"/>
+            <xdr:cNvPr id="113" name="Plus 112">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000071000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9138,7 +10492,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="114" name="Minus 113"/>
+            <xdr:cNvPr id="114" name="Minus 113">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000072000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9186,7 +10546,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="107" name="Group 106"/>
+          <xdr:cNvPr id="107" name="Group 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -9199,7 +10565,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="111" name="Plus 110"/>
+            <xdr:cNvPr id="111" name="Plus 110">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9246,7 +10618,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="112" name="Minus 111"/>
+            <xdr:cNvPr id="112" name="Minus 111">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000070000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9294,7 +10672,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="108" name="Group 107"/>
+          <xdr:cNvPr id="108" name="Group 107">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -9307,7 +10691,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="109" name="Plus 108"/>
+            <xdr:cNvPr id="109" name="Plus 108">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9354,7 +10744,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="110" name="Minus 109"/>
+            <xdr:cNvPr id="110" name="Minus 109">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9421,7 +10817,7 @@
         <xdr:cNvPr id="121" name="Oval 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9813D96A-44E8-40E5-8AD9-9729A5BD3060}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9493,7 +10889,7 @@
         <xdr:cNvPr id="122" name="Oval 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69ACD0A5-930A-4159-B3A8-A5CFA3D576E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9562,7 +10958,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="123" name="Straight Arrow Connector 122"/>
+        <xdr:cNvPr id="123" name="Straight Arrow Connector 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9612,7 +11014,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="124" name="Straight Arrow Connector 123"/>
+        <xdr:cNvPr id="124" name="Straight Arrow Connector 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9662,7 +11070,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="125" name="Straight Arrow Connector 124"/>
+        <xdr:cNvPr id="125" name="Straight Arrow Connector 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9712,7 +11126,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="126" name="Straight Arrow Connector 125"/>
+        <xdr:cNvPr id="126" name="Straight Arrow Connector 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9762,7 +11182,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="127" name="Straight Arrow Connector 126"/>
+        <xdr:cNvPr id="127" name="Straight Arrow Connector 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9812,7 +11238,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="Oval 127"/>
+        <xdr:cNvPr id="128" name="Oval 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9874,7 +11306,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="Oval 128"/>
+        <xdr:cNvPr id="129" name="Oval 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9936,7 +11374,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="Oval 129"/>
+        <xdr:cNvPr id="130" name="Oval 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9998,7 +11442,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="Oval 130"/>
+        <xdr:cNvPr id="131" name="Oval 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10060,7 +11510,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="Oval 131"/>
+        <xdr:cNvPr id="132" name="Oval 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000084000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10122,7 +11578,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="Oval 132"/>
+        <xdr:cNvPr id="133" name="Oval 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000085000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10184,7 +11646,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="Oval 133"/>
+        <xdr:cNvPr id="134" name="Oval 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10246,7 +11714,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="Oval 134"/>
+        <xdr:cNvPr id="135" name="Oval 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000087000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10308,7 +11782,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="Oval 135"/>
+        <xdr:cNvPr id="136" name="Oval 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10370,7 +11850,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="Oval 136"/>
+        <xdr:cNvPr id="137" name="Oval 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000089000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10432,7 +11918,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="Oval 137"/>
+        <xdr:cNvPr id="138" name="Oval 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10494,7 +11986,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="Oval 138"/>
+        <xdr:cNvPr id="139" name="Oval 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10556,7 +12054,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="Oval 139"/>
+        <xdr:cNvPr id="140" name="Oval 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10618,7 +12122,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="Oval 140"/>
+        <xdr:cNvPr id="141" name="Oval 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10680,7 +12190,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="Oval 141"/>
+        <xdr:cNvPr id="142" name="Oval 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10742,7 +12258,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="Oval 142"/>
+        <xdr:cNvPr id="143" name="Oval 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10804,7 +12326,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="Oval 143"/>
+        <xdr:cNvPr id="144" name="Oval 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000090000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10866,7 +12394,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="Oval 144"/>
+        <xdr:cNvPr id="145" name="Oval 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000091000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10928,7 +12462,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="146" name="Oval 145"/>
+        <xdr:cNvPr id="146" name="Oval 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000092000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10990,7 +12530,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="147" name="Oval 146"/>
+        <xdr:cNvPr id="147" name="Oval 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000093000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11052,7 +12598,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="148" name="Oval 147"/>
+        <xdr:cNvPr id="148" name="Oval 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000094000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11114,7 +12666,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="149" name="Oval 148"/>
+        <xdr:cNvPr id="149" name="Oval 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11176,7 +12734,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="150" name="Oval 149"/>
+        <xdr:cNvPr id="150" name="Oval 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000096000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11238,7 +12802,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="Oval 150"/>
+        <xdr:cNvPr id="151" name="Oval 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000097000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11300,7 +12870,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="152" name="Oval 151"/>
+        <xdr:cNvPr id="152" name="Oval 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000098000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11362,7 +12938,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="153" name="Oval 152"/>
+        <xdr:cNvPr id="153" name="Oval 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000099000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11424,7 +13006,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="Oval 153"/>
+        <xdr:cNvPr id="154" name="Oval 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11486,7 +13074,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="155" name="Oval 154"/>
+        <xdr:cNvPr id="155" name="Oval 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11548,7 +13142,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="156" name="Oval 155"/>
+        <xdr:cNvPr id="156" name="Oval 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11610,7 +13210,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="Oval 156"/>
+        <xdr:cNvPr id="157" name="Oval 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11672,7 +13278,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="158" name="Oval 157"/>
+        <xdr:cNvPr id="158" name="Oval 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11734,7 +13346,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="159" name="Oval 158"/>
+        <xdr:cNvPr id="159" name="Oval 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11796,7 +13414,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="160" name="Oval 159"/>
+        <xdr:cNvPr id="160" name="Oval 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11858,7 +13482,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="161" name="Oval 160"/>
+        <xdr:cNvPr id="161" name="Oval 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11920,7 +13550,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="162" name="Oval 161"/>
+        <xdr:cNvPr id="162" name="Oval 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11982,7 +13618,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="163" name="Oval 162"/>
+        <xdr:cNvPr id="163" name="Oval 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12044,7 +13686,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="Oval 163"/>
+        <xdr:cNvPr id="164" name="Oval 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12390,7 +14038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:K19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -12773,11 +14421,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13183,6 +14831,11 @@
       </c>
       <c r="K19">
         <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
